--- a/resources/number_of_files.xlsx
+++ b/resources/number_of_files.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="627">
   <si>
     <t>Test</t>
   </si>
@@ -28,7 +28,1222 @@
     <t>Not Java</t>
   </si>
   <si>
+    <t>Total Project</t>
+  </si>
+  <si>
     <t>Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4872
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6172
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1535
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">645
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1939
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3470
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">823
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2733
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3030
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5353
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1659
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3099
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4523
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2534
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14507
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1213
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1261
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1435
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3397
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1973
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2690
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7435
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4276
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3048
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9115
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3435
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1077
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1857
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">948
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1014
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11400
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5357
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1740
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7649
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">875
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3650
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9955
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3054
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82572
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">747
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8451
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1024
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1921
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">299
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">588
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1787
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9147
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7932
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3513
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2854
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">518
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">683
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5947
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">615
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2095
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3498
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">740
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5277
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">397
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2585
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4399
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">592
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1281
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">379
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1960
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">895
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">618
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">626
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">497
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">429
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">485
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">476
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1485
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1053
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7025
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1646
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">324
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">776
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">877
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1791
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3834
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5107
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9909
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1092
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1763
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1189
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">459
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1087
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">732
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">525
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15649
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17422
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4932
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">959
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1334
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19476
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15038
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">522
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1028
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">593
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1709
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16868
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3243
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">649
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1115
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1413
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1747
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8398
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4528
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5969
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2504
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3879
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">606
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1187
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1312
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">739
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6079
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">668
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7422
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1536
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1153
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">477
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2185
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">576
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4341
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1549
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1947
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1006
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1113
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6656
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13045
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1241
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1020
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11656
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2937
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">478
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">284
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1195
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">929
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183435
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43362
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3816
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3646
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2629
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">437
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">534
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">802
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">767
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1285
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1780
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">309
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1143
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7979
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10624
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1448
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10490
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5778
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4824
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1927
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5753
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3323
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1471
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">636
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105084
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1226
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2717
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">865
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29353
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3195
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1293
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2809
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">864
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">493
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2230
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">516
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">899
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2861
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">801
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8036
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">950
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">469
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">970
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1565
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2208
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1638
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2746
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30828
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">418
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">495
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1890
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5950
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2384
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1670
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4066
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1398
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1069
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">538
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5585
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1524
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1357
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">957
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10385
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3061
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4609
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">846
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2296
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9410
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">814
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1010
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">671
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">426
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">754
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">735
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">787
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1377
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">317
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2034
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2972
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">677
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7560
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2590
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">854
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2471
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5261
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1442
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1363
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">762
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10909
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11234
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">488
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3347
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1401
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3245
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">616
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">715
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1013
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">570
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1371
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">761
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2077
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">952
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">783
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">402
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">837
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1011
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2212
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3778
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3877
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1112
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">686
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1278
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2912
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1487
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1913
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">717
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3963
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21304
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">882
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2998
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3010
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4138
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4069
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1578
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14246
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1656
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1985
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4432
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2672
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">533
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1433
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2253
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">465
+</t>
   </si>
   <si>
     <t>Activiti</t>
@@ -1340,13 +2555,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E323"/>
+  <dimension ref="A1:F323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1362,13 +2577,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="C2">
         <v>113</v>
@@ -1377,32 +2595,38 @@
         <v>98</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>122</v>
+      </c>
+      <c r="B3">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>113</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>84</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>113</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
       </c>
       <c r="C4">
         <v>113</v>
@@ -1411,10 +2635,13 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1428,27 +2655,33 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>113</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1462,10 +2695,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1479,10 +2715,13 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1496,10 +2735,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1513,10 +2755,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1530,10 +2775,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1547,12 +2795,15 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1564,10 +2815,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1581,10 +2835,13 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1598,29 +2855,35 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>113</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1632,10 +2895,13 @@
         <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1649,10 +2915,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1666,12 +2935,15 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1683,15 +2955,18 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>113</v>
@@ -1700,15 +2975,18 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B22">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C22">
         <v>113</v>
@@ -1717,10 +2995,13 @@
         <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1734,10 +3015,13 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1751,10 +3035,13 @@
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1768,10 +3055,13 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1785,10 +3075,13 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1804,8 +3097,11 @@
       <c r="E27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1821,8 +3117,11 @@
       <c r="E28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1838,8 +3137,11 @@
       <c r="E29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1855,13 +3157,16 @@
       <c r="E30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>113</v>
@@ -1872,25 +3177,31 @@
       <c r="E31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B32">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C32">
         <v>113</v>
       </c>
       <c r="D32">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1906,8 +3217,11 @@
       <c r="E33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1923,8 +3237,11 @@
       <c r="E34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1940,27 +3257,33 @@
       <c r="E35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>113</v>
       </c>
       <c r="D36">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1974,8 +3297,11 @@
       <c r="E37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1991,8 +3317,11 @@
       <c r="E38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2008,8 +3337,11 @@
       <c r="E39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2025,8 +3357,11 @@
       <c r="E40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>0</v>
       </c>
@@ -2042,25 +3377,31 @@
       <c r="E41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
-        <v>386</v>
+        <v>95</v>
       </c>
       <c r="B42">
-        <v>400</v>
+        <v>203</v>
       </c>
       <c r="C42">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2076,25 +3417,31 @@
       <c r="E43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>5798</v>
+        <v>150</v>
       </c>
       <c r="C44">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D44">
-        <v>2569</v>
+        <v>908</v>
       </c>
       <c r="E44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2110,25 +3457,31 @@
       <c r="E45" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
-        <v>279</v>
+        <v>870</v>
       </c>
       <c r="B46">
-        <v>246</v>
+        <v>644</v>
       </c>
       <c r="C46">
         <v>113</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>0</v>
       </c>
@@ -2144,8 +3497,11 @@
       <c r="E47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>0</v>
       </c>
@@ -2161,25 +3517,31 @@
       <c r="E48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B49">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C49">
         <v>113</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2195,13 +3557,16 @@
       <c r="E50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>113</v>
@@ -2212,25 +3577,31 @@
       <c r="E51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="B52">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="C52">
         <v>113</v>
       </c>
       <c r="D52">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="F52" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>0</v>
       </c>
@@ -2244,10 +3615,13 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="F53" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>0</v>
       </c>
@@ -2261,10 +3635,13 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="F54" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>0</v>
       </c>
@@ -2278,61 +3655,73 @@
         <v>34</v>
       </c>
       <c r="E55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>114</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>114</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>27</v>
+      </c>
+      <c r="C57">
+        <v>113</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57">
-        <v>0</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>113</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>114</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>114</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>0</v>
       </c>
@@ -2346,100 +3735,118 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>113</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60">
-        <v>0</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>113</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>114</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61">
-        <v>0</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>114</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>114</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62">
-        <v>0</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>114</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>114</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63">
-        <v>0</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>114</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>113</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64">
-        <v>0</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>113</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>0</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>113</v>
@@ -2448,49 +3855,58 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>114</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66">
-        <v>0</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>114</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>114</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67">
-        <v>0</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>114</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>0</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C68">
         <v>113</v>
@@ -2499,12 +3915,15 @@
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="F68" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2516,27 +3935,33 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>114</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70">
-        <v>0</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>114</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>0</v>
       </c>
@@ -2550,10 +3975,13 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="F71" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>0</v>
       </c>
@@ -2567,15 +3995,18 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>113</v>
@@ -2584,12 +4015,15 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -2601,15 +4035,18 @@
         <v>33</v>
       </c>
       <c r="E74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F74" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C75">
         <v>113</v>
@@ -2618,27 +4055,33 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>114</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76">
-        <v>0</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>114</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>0</v>
       </c>
@@ -2652,15 +4095,18 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="F77" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C78">
         <v>113</v>
@@ -2669,117 +4115,138 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
+        <v>80</v>
+      </c>
+      <c r="F78" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>113</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>113</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>114</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80">
-        <v>0</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>114</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>114</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81">
-        <v>0</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>114</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>114</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82">
-        <v>0</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>114</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>57</v>
+      </c>
+      <c r="B83">
+        <v>221</v>
+      </c>
+      <c r="C83">
+        <v>113</v>
+      </c>
+      <c r="D83">
+        <v>103</v>
+      </c>
+      <c r="E83" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83">
-        <v>32</v>
-      </c>
-      <c r="B83">
-        <v>113</v>
-      </c>
-      <c r="C83">
-        <v>113</v>
-      </c>
-      <c r="D83">
-        <v>76</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>52</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>113</v>
+      </c>
+      <c r="D84">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84">
-        <v>23</v>
-      </c>
-      <c r="B84">
+      <c r="F84" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
         <v>3</v>
-      </c>
-      <c r="C84">
-        <v>113</v>
-      </c>
-      <c r="D84">
-        <v>14</v>
-      </c>
-      <c r="E84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85">
-        <v>0</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
       </c>
       <c r="C85">
         <v>113</v>
@@ -2788,83 +4255,98 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>15</v>
+      </c>
+      <c r="C86">
+        <v>113</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86">
-        <v>4</v>
-      </c>
-      <c r="B86">
-        <v>9</v>
-      </c>
-      <c r="C86">
-        <v>113</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>114</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87">
-        <v>0</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>114</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>114</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88">
-        <v>0</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>114</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>114</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89">
-        <v>0</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>114</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B90">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C90">
         <v>113</v>
@@ -2873,44 +4355,53 @@
         <v>27</v>
       </c>
       <c r="E90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F90" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>794</v>
+      </c>
+      <c r="B91">
+        <v>18</v>
+      </c>
+      <c r="C91">
+        <v>114</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91">
-        <v>1455</v>
-      </c>
-      <c r="B91">
-        <v>253</v>
-      </c>
-      <c r="C91">
-        <v>113</v>
-      </c>
-      <c r="D91">
-        <v>9</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>113</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92">
-        <v>0</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>113</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>5</v>
       </c>
@@ -2924,15 +4415,18 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>95</v>
+      </c>
+      <c r="F93" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C94">
         <v>113</v>
@@ -2941,29 +4435,35 @@
         <v>122</v>
       </c>
       <c r="E94" t="s">
+        <v>96</v>
+      </c>
+      <c r="F94" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>114</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95">
-        <v>0</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>114</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2975,61 +4475,73 @@
         <v>38</v>
       </c>
       <c r="E96" t="s">
+        <v>98</v>
+      </c>
+      <c r="F96" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>114</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97">
-        <v>0</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>114</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>114</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>114</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>113</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99">
-        <v>0</v>
-      </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99">
-        <v>113</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>0</v>
       </c>
@@ -3043,44 +4555,53 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
+        <v>102</v>
+      </c>
+      <c r="F100" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>114</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
-        <v>0</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>114</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>114</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102">
-        <v>0</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>114</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>0</v>
       </c>
@@ -3094,95 +4615,113 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
+        <v>105</v>
+      </c>
+      <c r="F103" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>114</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104">
-        <v>0</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>114</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>114</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105">
-        <v>0</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>114</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>114</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106">
-        <v>0</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>114</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>40</v>
+      </c>
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>113</v>
+      </c>
+      <c r="D107">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107">
-        <v>20</v>
-      </c>
-      <c r="B107">
-        <v>5</v>
-      </c>
-      <c r="C107">
-        <v>113</v>
-      </c>
-      <c r="D107">
-        <v>9</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>114</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108">
-        <v>0</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>114</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>82</v>
       </c>
@@ -3196,27 +4735,33 @@
         <v>567</v>
       </c>
       <c r="E109" t="s">
+        <v>111</v>
+      </c>
+      <c r="F109" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>114</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110">
-        <v>0</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>114</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>0</v>
       </c>
@@ -3230,10 +4775,13 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>113</v>
+      </c>
+      <c r="F111" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>0</v>
       </c>
@@ -3247,10 +4795,13 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>114</v>
+      </c>
+      <c r="F112" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>0</v>
       </c>
@@ -3264,61 +4815,73 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
+        <v>115</v>
+      </c>
+      <c r="F113" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>114</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114">
-        <v>0</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <v>114</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>114</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
-        <v>0</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <v>114</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>114</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
-        <v>0</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>114</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>0</v>
       </c>
@@ -3332,27 +4895,33 @@
         <v>5</v>
       </c>
       <c r="E117" t="s">
+        <v>119</v>
+      </c>
+      <c r="F117" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>28</v>
+      </c>
+      <c r="B118">
+        <v>150</v>
+      </c>
+      <c r="C118">
+        <v>113</v>
+      </c>
+      <c r="D118">
+        <v>285</v>
+      </c>
+      <c r="E118" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
-        <v>19</v>
-      </c>
-      <c r="B118">
-        <v>96</v>
-      </c>
-      <c r="C118">
-        <v>113</v>
-      </c>
-      <c r="D118">
-        <v>276</v>
-      </c>
-      <c r="E118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>0</v>
       </c>
@@ -3366,27 +4935,33 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
+        <v>121</v>
+      </c>
+      <c r="F119" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>114</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120">
-        <v>0</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>114</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>0</v>
       </c>
@@ -3400,10 +4975,13 @@
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="F121" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>0</v>
       </c>
@@ -3417,32 +4995,38 @@
         <v>15</v>
       </c>
       <c r="E122" t="s">
+        <v>124</v>
+      </c>
+      <c r="F122" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>50</v>
+      </c>
+      <c r="C123">
+        <v>113</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123">
-        <v>6</v>
-      </c>
-      <c r="B123">
-        <v>4</v>
-      </c>
-      <c r="C123">
-        <v>113</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>0</v>
       </c>
       <c r="B124">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C124">
         <v>113</v>
@@ -3451,15 +5035,18 @@
         <v>121</v>
       </c>
       <c r="E124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="F124" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="B125">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C125">
         <v>113</v>
@@ -3468,15 +5055,18 @@
         <v>54</v>
       </c>
       <c r="E125" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="F125" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>0</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C126">
         <v>113</v>
@@ -3485,10 +5075,13 @@
         <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="F126" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>0</v>
       </c>
@@ -3502,80 +5095,95 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
+        <v>129</v>
+      </c>
+      <c r="F127" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>113</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128">
+      <c r="F128" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>399</v>
+      </c>
+      <c r="B129">
+        <v>512</v>
+      </c>
+      <c r="C129">
+        <v>113</v>
+      </c>
+      <c r="D129">
+        <v>167</v>
+      </c>
+      <c r="E129" t="s">
+        <v>131</v>
+      </c>
+      <c r="F129" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>114</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>132</v>
+      </c>
+      <c r="F130" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>113</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>133</v>
+      </c>
+      <c r="F131" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
         <v>1</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>113</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129">
-        <v>338</v>
-      </c>
-      <c r="B129">
-        <v>362</v>
-      </c>
-      <c r="C129">
-        <v>113</v>
-      </c>
-      <c r="D129">
-        <v>23</v>
-      </c>
-      <c r="E129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130">
-        <v>0</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>114</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131">
-        <v>0</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131">
-        <v>113</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132">
-        <v>0</v>
       </c>
       <c r="B132">
         <v>3</v>
@@ -3587,83 +5195,98 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
+        <v>134</v>
+      </c>
+      <c r="F132" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>114</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>108</v>
+      </c>
+      <c r="F133" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>114</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133">
-        <v>0</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>114</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="F134" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>21</v>
+      </c>
+      <c r="B135">
+        <v>98</v>
+      </c>
+      <c r="C135">
+        <v>113</v>
+      </c>
+      <c r="D135">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134">
-        <v>0</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134">
-        <v>114</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="F135" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>114</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135">
-        <v>9</v>
-      </c>
-      <c r="B135">
-        <v>26</v>
-      </c>
-      <c r="C135">
-        <v>113</v>
-      </c>
-      <c r="D135">
-        <v>7</v>
-      </c>
-      <c r="E135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136">
-        <v>0</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>114</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>0</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C137">
         <v>113</v>
@@ -3672,10 +5295,13 @@
         <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F137" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>0</v>
       </c>
@@ -3689,10 +5315,13 @@
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>139</v>
+      </c>
+      <c r="F138" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>0</v>
       </c>
@@ -3706,10 +5335,13 @@
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>140</v>
+      </c>
+      <c r="F139" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>0</v>
       </c>
@@ -3723,15 +5355,18 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>141</v>
+      </c>
+      <c r="F140" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C141">
         <v>113</v>
@@ -3740,44 +5375,53 @@
         <v>4</v>
       </c>
       <c r="E141" t="s">
+        <v>142</v>
+      </c>
+      <c r="F141" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>114</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>143</v>
+      </c>
+      <c r="F142" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>114</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142">
-        <v>0</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>114</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143">
-        <v>0</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>114</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>0</v>
       </c>
@@ -3791,63 +5435,75 @@
         <v>33</v>
       </c>
       <c r="E144" t="s">
+        <v>145</v>
+      </c>
+      <c r="F144" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>114</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F145" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>113</v>
+      </c>
+      <c r="D146">
+        <v>28</v>
+      </c>
+      <c r="E146" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145">
-        <v>0</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>114</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="F146" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>114</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146">
-        <v>0</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>113</v>
-      </c>
-      <c r="D146">
-        <v>27</v>
-      </c>
-      <c r="E146" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147">
-        <v>0</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>114</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3859,10 +5515,13 @@
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>149</v>
+      </c>
+      <c r="F148" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>0</v>
       </c>
@@ -3876,10 +5535,13 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F149" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>0</v>
       </c>
@@ -3893,10 +5555,13 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>150</v>
+      </c>
+      <c r="F150" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>0</v>
       </c>
@@ -3910,112 +5575,133 @@
         <v>1</v>
       </c>
       <c r="E151" t="s">
+        <v>151</v>
+      </c>
+      <c r="F151" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>114</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>152</v>
+      </c>
+      <c r="F152" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>114</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>153</v>
+      </c>
+      <c r="F153" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>114</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152">
-        <v>0</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>114</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="F154" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155">
+        <v>22</v>
+      </c>
+      <c r="C155">
+        <v>113</v>
+      </c>
+      <c r="D155">
+        <v>16</v>
+      </c>
+      <c r="E155" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153">
-        <v>0</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>114</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="F155" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>114</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154">
-        <v>0</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-      <c r="C154">
-        <v>114</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="F156" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>113</v>
+      </c>
+      <c r="D157">
+        <v>17</v>
+      </c>
+      <c r="E157" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155">
-        <v>3</v>
-      </c>
-      <c r="B155">
-        <v>9</v>
-      </c>
-      <c r="C155">
-        <v>113</v>
-      </c>
-      <c r="D155">
-        <v>12</v>
-      </c>
-      <c r="E155" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156">
-        <v>0</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-      <c r="C156">
-        <v>114</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157">
-        <v>0</v>
-      </c>
-      <c r="B157">
-        <v>3</v>
-      </c>
-      <c r="C157">
-        <v>113</v>
-      </c>
-      <c r="D157">
-        <v>16</v>
-      </c>
-      <c r="E157" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>0</v>
       </c>
@@ -4029,10 +5715,13 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="F158" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>0</v>
       </c>
@@ -4046,10 +5735,13 @@
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>159</v>
+      </c>
+      <c r="F159" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>0</v>
       </c>
@@ -4063,10 +5755,13 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>160</v>
+      </c>
+      <c r="F160" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>0</v>
       </c>
@@ -4080,78 +5775,93 @@
         <v>7</v>
       </c>
       <c r="E161" t="s">
+        <v>161</v>
+      </c>
+      <c r="F161" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>114</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>162</v>
+      </c>
+      <c r="F162" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>125</v>
+      </c>
+      <c r="C163">
+        <v>113</v>
+      </c>
+      <c r="D163">
+        <v>334</v>
+      </c>
+      <c r="E163" t="s">
+        <v>163</v>
+      </c>
+      <c r="F163" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>114</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162">
-        <v>0</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-      <c r="C162">
-        <v>114</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="F164" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>232</v>
+      </c>
+      <c r="C165">
+        <v>113</v>
+      </c>
+      <c r="D165">
+        <v>3739</v>
+      </c>
+      <c r="E165" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163">
-        <v>1</v>
-      </c>
-      <c r="B163">
-        <v>189</v>
-      </c>
-      <c r="C163">
-        <v>113</v>
-      </c>
-      <c r="D163">
-        <v>355</v>
-      </c>
-      <c r="E163" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164">
-        <v>0</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="C164">
-        <v>114</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165">
-        <v>0</v>
-      </c>
-      <c r="B165">
-        <v>21</v>
-      </c>
-      <c r="C165">
-        <v>113</v>
-      </c>
-      <c r="D165">
-        <v>3738</v>
-      </c>
-      <c r="E165" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4165,10 +5875,13 @@
         <v>23</v>
       </c>
       <c r="E166" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>166</v>
+      </c>
+      <c r="F166" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>0</v>
       </c>
@@ -4182,15 +5895,18 @@
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>167</v>
+      </c>
+      <c r="F167" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>0</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C168">
         <v>113</v>
@@ -4199,10 +5915,13 @@
         <v>7</v>
       </c>
       <c r="E168" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>168</v>
+      </c>
+      <c r="F168" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>0</v>
       </c>
@@ -4216,10 +5935,13 @@
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>169</v>
+      </c>
+      <c r="F169" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>0</v>
       </c>
@@ -4233,10 +5955,13 @@
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>170</v>
+      </c>
+      <c r="F170" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>0</v>
       </c>
@@ -4250,10 +5975,13 @@
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>171</v>
+      </c>
+      <c r="F171" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>0</v>
       </c>
@@ -4267,10 +5995,13 @@
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>172</v>
+      </c>
+      <c r="F172" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>0</v>
       </c>
@@ -4284,10 +6015,13 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>173</v>
+      </c>
+      <c r="F173" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>0</v>
       </c>
@@ -4301,15 +6035,18 @@
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>174</v>
+      </c>
+      <c r="F174" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>0</v>
       </c>
       <c r="B175">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C175">
         <v>113</v>
@@ -4318,83 +6055,98 @@
         <v>1</v>
       </c>
       <c r="E175" t="s">
+        <v>175</v>
+      </c>
+      <c r="F175" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>114</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>176</v>
+      </c>
+      <c r="F176" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>114</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>177</v>
+      </c>
+      <c r="F177" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>114</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176">
-        <v>0</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176">
-        <v>114</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="F178" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>114</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177">
-        <v>0</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="C177">
-        <v>114</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178">
-        <v>0</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="C178">
-        <v>114</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179">
-        <v>0</v>
-      </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-      <c r="C179">
-        <v>114</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C180">
         <v>113</v>
@@ -4403,27 +6155,33 @@
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>180</v>
+      </c>
+      <c r="F180" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B181">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="C181">
         <v>113</v>
       </c>
       <c r="D181">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E181" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>181</v>
+      </c>
+      <c r="F181" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>0</v>
       </c>
@@ -4437,15 +6195,18 @@
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F182" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B183">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C183">
         <v>113</v>
@@ -4454,49 +6215,58 @@
         <v>6</v>
       </c>
       <c r="E183" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>183</v>
+      </c>
+      <c r="F183" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B184">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C184">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D184">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E184" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>184</v>
+      </c>
+      <c r="F184" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B185">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="C185">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D185">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E185" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>185</v>
+      </c>
+      <c r="F185" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C186">
         <v>113</v>
@@ -4505,10 +6275,13 @@
         <v>8</v>
       </c>
       <c r="E186" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>186</v>
+      </c>
+      <c r="F186" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>0</v>
       </c>
@@ -4522,15 +6295,18 @@
         <v>2</v>
       </c>
       <c r="E187" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F187" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C188">
         <v>113</v>
@@ -4539,163 +6315,193 @@
         <v>5</v>
       </c>
       <c r="E188" t="s">
+        <v>188</v>
+      </c>
+      <c r="F188" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>114</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>189</v>
+      </c>
+      <c r="F189" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>114</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>190</v>
+      </c>
+      <c r="F190" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>780</v>
+      </c>
+      <c r="B191">
+        <v>87</v>
+      </c>
+      <c r="C191">
+        <v>114</v>
+      </c>
+      <c r="D191">
+        <v>373</v>
+      </c>
+      <c r="E191" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189">
-        <v>0</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="C189">
-        <v>114</v>
-      </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="F191" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>114</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190">
-        <v>0</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="C190">
-        <v>114</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="F192" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>6</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>113</v>
+      </c>
+      <c r="D193">
+        <v>107</v>
+      </c>
+      <c r="E193" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191">
-        <v>819</v>
-      </c>
-      <c r="B191">
-        <v>284</v>
-      </c>
-      <c r="C191">
-        <v>113</v>
-      </c>
-      <c r="D191">
-        <v>465</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="F193" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>114</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192">
-        <v>0</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="C192">
-        <v>114</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="F194" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>114</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>59</v>
+      </c>
+      <c r="F195" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>9</v>
+      </c>
+      <c r="C196">
+        <v>113</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193">
-        <v>3</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193">
-        <v>113</v>
-      </c>
-      <c r="D193">
-        <v>88</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="F196" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>18</v>
+      </c>
+      <c r="B197">
+        <v>12</v>
+      </c>
+      <c r="C197">
+        <v>113</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+      <c r="E197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194">
-        <v>0</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-      <c r="C194">
-        <v>114</v>
-      </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195">
-        <v>0</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-      <c r="C195">
-        <v>114</v>
-      </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196">
-        <v>0</v>
-      </c>
-      <c r="B196">
-        <v>5</v>
-      </c>
-      <c r="C196">
-        <v>113</v>
-      </c>
-      <c r="D196">
-        <v>0</v>
-      </c>
-      <c r="E196" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197">
-        <v>5</v>
-      </c>
-      <c r="B197">
-        <v>10</v>
-      </c>
-      <c r="C197">
-        <v>113</v>
-      </c>
-      <c r="D197">
-        <v>3</v>
-      </c>
-      <c r="E197" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>0</v>
       </c>
@@ -4709,202 +6515,238 @@
         <v>2</v>
       </c>
       <c r="E198" t="s">
+        <v>197</v>
+      </c>
+      <c r="F198" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>114</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>198</v>
+      </c>
+      <c r="F199" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>114</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>199</v>
+      </c>
+      <c r="F200" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>9</v>
+      </c>
+      <c r="B201">
+        <v>9</v>
+      </c>
+      <c r="C201">
+        <v>113</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>200</v>
+      </c>
+      <c r="F201" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>114</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199">
-        <v>0</v>
-      </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-      <c r="C199">
-        <v>114</v>
-      </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-      <c r="E199" t="s">
+      <c r="F202" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>114</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200">
-        <v>0</v>
-      </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-      <c r="C200">
-        <v>114</v>
-      </c>
-      <c r="D200">
-        <v>0</v>
-      </c>
-      <c r="E200" t="s">
+      <c r="F203" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>28</v>
+      </c>
+      <c r="B204">
+        <v>168</v>
+      </c>
+      <c r="C204">
+        <v>113</v>
+      </c>
+      <c r="D204">
+        <v>30</v>
+      </c>
+      <c r="E204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201">
-        <v>6</v>
-      </c>
-      <c r="B201">
-        <v>5</v>
-      </c>
-      <c r="C201">
-        <v>113</v>
-      </c>
-      <c r="D201">
-        <v>0</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="F204" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>114</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>153</v>
+      </c>
+      <c r="F205" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>114</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202">
-        <v>0</v>
-      </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-      <c r="C202">
-        <v>114</v>
-      </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202" t="s">
+      <c r="F206" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>8</v>
+      </c>
+      <c r="B207">
+        <v>79</v>
+      </c>
+      <c r="C207">
+        <v>114</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203">
-        <v>0</v>
-      </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-      <c r="C203">
-        <v>114</v>
-      </c>
-      <c r="D203">
-        <v>0</v>
-      </c>
-      <c r="E203" t="s">
+      <c r="F207" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>114</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204">
-        <v>21</v>
-      </c>
-      <c r="B204">
-        <v>73</v>
-      </c>
-      <c r="C204">
-        <v>113</v>
-      </c>
-      <c r="D204">
-        <v>26</v>
-      </c>
-      <c r="E204" t="s">
+      <c r="F208" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>114</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205">
-        <v>0</v>
-      </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-      <c r="C205">
-        <v>114</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206">
-        <v>0</v>
-      </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-      <c r="C206">
-        <v>114</v>
-      </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="E206" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207">
-        <v>25</v>
-      </c>
-      <c r="B207">
-        <v>184</v>
-      </c>
-      <c r="C207">
-        <v>113</v>
-      </c>
-      <c r="D207">
-        <v>2</v>
-      </c>
-      <c r="E207" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208">
-        <v>0</v>
-      </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-      <c r="C208">
-        <v>114</v>
-      </c>
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="E208" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209">
-        <v>0</v>
-      </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-      <c r="C209">
-        <v>114</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
-      <c r="E209" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B210">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C210">
         <v>113</v>
@@ -4913,27 +6755,33 @@
         <v>67</v>
       </c>
       <c r="E210" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>208</v>
+      </c>
+      <c r="F210" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B211">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="C211">
         <v>113</v>
       </c>
       <c r="D211">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E211" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>164</v>
+      </c>
+      <c r="F211" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>0</v>
       </c>
@@ -4947,10 +6795,13 @@
         <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="F212" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>0</v>
       </c>
@@ -4964,15 +6815,18 @@
         <v>2</v>
       </c>
       <c r="E213" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>210</v>
+      </c>
+      <c r="F213" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B214">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C214">
         <v>113</v>
@@ -4981,27 +6835,33 @@
         <v>8</v>
       </c>
       <c r="E214" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>211</v>
+      </c>
+      <c r="F214" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B215">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C215">
         <v>113</v>
       </c>
       <c r="D215">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E215" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>212</v>
+      </c>
+      <c r="F215" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>0</v>
       </c>
@@ -5015,10 +6875,13 @@
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>213</v>
+      </c>
+      <c r="F216" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>0</v>
       </c>
@@ -5032,78 +6895,93 @@
         <v>2</v>
       </c>
       <c r="E217" t="s">
+        <v>214</v>
+      </c>
+      <c r="F217" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>114</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>215</v>
+      </c>
+      <c r="F218" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>102</v>
+      </c>
+      <c r="C219">
+        <v>114</v>
+      </c>
+      <c r="D219">
+        <v>48</v>
+      </c>
+      <c r="E219" t="s">
+        <v>216</v>
+      </c>
+      <c r="F219" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>114</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>217</v>
+      </c>
+      <c r="F220" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>0</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>114</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218">
-        <v>0</v>
-      </c>
-      <c r="B218">
-        <v>0</v>
-      </c>
-      <c r="C218">
-        <v>114</v>
-      </c>
-      <c r="D218">
-        <v>0</v>
-      </c>
-      <c r="E218" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219">
-        <v>198</v>
-      </c>
-      <c r="B219">
-        <v>237</v>
-      </c>
-      <c r="C219">
-        <v>113</v>
-      </c>
-      <c r="D219">
-        <v>4567</v>
-      </c>
-      <c r="E219" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220">
-        <v>0</v>
-      </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-      <c r="C220">
-        <v>114</v>
-      </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221">
-        <v>0</v>
-      </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-      <c r="C221">
-        <v>114</v>
-      </c>
-      <c r="D221">
-        <v>0</v>
-      </c>
-      <c r="E221" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="F221" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>0</v>
       </c>
@@ -5117,15 +6995,18 @@
         <v>17</v>
       </c>
       <c r="E222" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>219</v>
+      </c>
+      <c r="F222" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>0</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C223">
         <v>113</v>
@@ -5134,10 +7015,13 @@
         <v>1</v>
       </c>
       <c r="E223" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>220</v>
+      </c>
+      <c r="F223" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>5</v>
       </c>
@@ -5151,10 +7035,13 @@
         <v>11</v>
       </c>
       <c r="E224" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>221</v>
+      </c>
+      <c r="F224" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>0</v>
       </c>
@@ -5168,27 +7055,33 @@
         <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>72</v>
+      </c>
+      <c r="F225" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B226">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C226">
         <v>113</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E226" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F226" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>0</v>
       </c>
@@ -5202,15 +7095,18 @@
         <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>222</v>
+      </c>
+      <c r="F227" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>0</v>
       </c>
       <c r="B228">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C228">
         <v>113</v>
@@ -5219,10 +7115,13 @@
         <v>4</v>
       </c>
       <c r="E228" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>223</v>
+      </c>
+      <c r="F228" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>0</v>
       </c>
@@ -5236,10 +7135,13 @@
         <v>19</v>
       </c>
       <c r="E229" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>224</v>
+      </c>
+      <c r="F229" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>0</v>
       </c>
@@ -5253,10 +7155,13 @@
         <v>0</v>
       </c>
       <c r="E230" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>225</v>
+      </c>
+      <c r="F230" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>0</v>
       </c>
@@ -5270,10 +7175,13 @@
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>226</v>
+      </c>
+      <c r="F231" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>0</v>
       </c>
@@ -5287,10 +7195,13 @@
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>227</v>
+      </c>
+      <c r="F232" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>0</v>
       </c>
@@ -5304,10 +7215,13 @@
         <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>227</v>
+      </c>
+      <c r="F233" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>0</v>
       </c>
@@ -5321,10 +7235,13 @@
         <v>1</v>
       </c>
       <c r="E234" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>228</v>
+      </c>
+      <c r="F234" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>0</v>
       </c>
@@ -5338,10 +7255,13 @@
         <v>8</v>
       </c>
       <c r="E235" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>229</v>
+      </c>
+      <c r="F235" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>0</v>
       </c>
@@ -5355,15 +7275,18 @@
         <v>0</v>
       </c>
       <c r="E236" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>230</v>
+      </c>
+      <c r="F236" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C237">
         <v>113</v>
@@ -5372,10 +7295,13 @@
         <v>11</v>
       </c>
       <c r="E237" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>231</v>
+      </c>
+      <c r="F237" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>0</v>
       </c>
@@ -5389,10 +7315,13 @@
         <v>1</v>
       </c>
       <c r="E238" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>232</v>
+      </c>
+      <c r="F238" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>0</v>
       </c>
@@ -5406,10 +7335,13 @@
         <v>0</v>
       </c>
       <c r="E239" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>233</v>
+      </c>
+      <c r="F239" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5423,10 +7355,13 @@
         <v>15</v>
       </c>
       <c r="E240" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>234</v>
+      </c>
+      <c r="F240" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>0</v>
       </c>
@@ -5440,10 +7375,13 @@
         <v>0</v>
       </c>
       <c r="E241" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>235</v>
+      </c>
+      <c r="F241" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>0</v>
       </c>
@@ -5457,10 +7395,13 @@
         <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>236</v>
+      </c>
+      <c r="F242" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>0</v>
       </c>
@@ -5474,27 +7415,33 @@
         <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>237</v>
+      </c>
+      <c r="F243" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>0</v>
       </c>
       <c r="B244">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C244">
         <v>113</v>
       </c>
       <c r="D244">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E244" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F244" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>0</v>
       </c>
@@ -5508,10 +7455,13 @@
         <v>4</v>
       </c>
       <c r="E245" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>239</v>
+      </c>
+      <c r="F245" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>0</v>
       </c>
@@ -5525,10 +7475,13 @@
         <v>0</v>
       </c>
       <c r="E246" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>240</v>
+      </c>
+      <c r="F246" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>0</v>
       </c>
@@ -5542,10 +7495,13 @@
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>194</v>
+      </c>
+      <c r="F247" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>0</v>
       </c>
@@ -5559,10 +7515,13 @@
         <v>1</v>
       </c>
       <c r="E248" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>241</v>
+      </c>
+      <c r="F248" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>0</v>
       </c>
@@ -5576,10 +7535,13 @@
         <v>0</v>
       </c>
       <c r="E249" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>242</v>
+      </c>
+      <c r="F249" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>0</v>
       </c>
@@ -5593,10 +7555,13 @@
         <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>243</v>
+      </c>
+      <c r="F250" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>0</v>
       </c>
@@ -5610,10 +7575,13 @@
         <v>0</v>
       </c>
       <c r="E251" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>244</v>
+      </c>
+      <c r="F251" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>0</v>
       </c>
@@ -5627,10 +7595,13 @@
         <v>0</v>
       </c>
       <c r="E252" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="F252" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>0</v>
       </c>
@@ -5644,15 +7615,18 @@
         <v>13</v>
       </c>
       <c r="E253" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>245</v>
+      </c>
+      <c r="F253" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C254">
         <v>113</v>
@@ -5661,27 +7635,33 @@
         <v>0</v>
       </c>
       <c r="E254" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>246</v>
+      </c>
+      <c r="F254" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B255">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C255">
         <v>113</v>
       </c>
       <c r="D255">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E255" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>247</v>
+      </c>
+      <c r="F255" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>0</v>
       </c>
@@ -5695,10 +7675,13 @@
         <v>0</v>
       </c>
       <c r="E256" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>248</v>
+      </c>
+      <c r="F256" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>0</v>
       </c>
@@ -5712,10 +7695,13 @@
         <v>0</v>
       </c>
       <c r="E257" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>249</v>
+      </c>
+      <c r="F257" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>0</v>
       </c>
@@ -5729,10 +7715,13 @@
         <v>0</v>
       </c>
       <c r="E258" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>250</v>
+      </c>
+      <c r="F258" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>0</v>
       </c>
@@ -5746,15 +7735,18 @@
         <v>18</v>
       </c>
       <c r="E259" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>251</v>
+      </c>
+      <c r="F259" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>1</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C260">
         <v>113</v>
@@ -5763,10 +7755,13 @@
         <v>0</v>
       </c>
       <c r="E260" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>252</v>
+      </c>
+      <c r="F260" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>0</v>
       </c>
@@ -5780,15 +7775,18 @@
         <v>0</v>
       </c>
       <c r="E261" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>253</v>
+      </c>
+      <c r="F261" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>0</v>
       </c>
       <c r="B262">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C262">
         <v>113</v>
@@ -5797,10 +7795,13 @@
         <v>6</v>
       </c>
       <c r="E262" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>254</v>
+      </c>
+      <c r="F262" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>0</v>
       </c>
@@ -5814,10 +7815,13 @@
         <v>0</v>
       </c>
       <c r="E263" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>148</v>
+      </c>
+      <c r="F263" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>0</v>
       </c>
@@ -5831,10 +7835,13 @@
         <v>0</v>
       </c>
       <c r="E264" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>255</v>
+      </c>
+      <c r="F264" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>0</v>
       </c>
@@ -5848,10 +7855,13 @@
         <v>1</v>
       </c>
       <c r="E265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F265" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>0</v>
       </c>
@@ -5865,10 +7875,13 @@
         <v>0</v>
       </c>
       <c r="E266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>257</v>
+      </c>
+      <c r="F266" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>0</v>
       </c>
@@ -5882,44 +7895,53 @@
         <v>0</v>
       </c>
       <c r="E267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>258</v>
+      </c>
+      <c r="F267" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>0</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C268">
         <v>113</v>
       </c>
       <c r="D268">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>259</v>
+      </c>
+      <c r="F268" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="B269">
-        <v>168</v>
+        <v>705</v>
       </c>
       <c r="C269">
         <v>113</v>
       </c>
       <c r="D269">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>260</v>
+      </c>
+      <c r="F269" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>0</v>
       </c>
@@ -5933,15 +7955,18 @@
         <v>1</v>
       </c>
       <c r="E270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>261</v>
+      </c>
+      <c r="F270" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B271">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C271">
         <v>113</v>
@@ -5950,10 +7975,13 @@
         <v>0</v>
       </c>
       <c r="E271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F271" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>0</v>
       </c>
@@ -5967,10 +7995,13 @@
         <v>1</v>
       </c>
       <c r="E272" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F272" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>0</v>
       </c>
@@ -5984,10 +8015,13 @@
         <v>0</v>
       </c>
       <c r="E273" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F273" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274">
         <v>0</v>
       </c>
@@ -6001,15 +8035,18 @@
         <v>0</v>
       </c>
       <c r="E274" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>265</v>
+      </c>
+      <c r="F274" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>0</v>
       </c>
       <c r="B275">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C275">
         <v>113</v>
@@ -6018,15 +8055,18 @@
         <v>16</v>
       </c>
       <c r="E275" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>266</v>
+      </c>
+      <c r="F275" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C276">
         <v>113</v>
@@ -6035,12 +8075,15 @@
         <v>0</v>
       </c>
       <c r="E276" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F276" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -6052,15 +8095,18 @@
         <v>0</v>
       </c>
       <c r="E277" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>268</v>
+      </c>
+      <c r="F277" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278">
         <v>4</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C278">
         <v>113</v>
@@ -6069,10 +8115,13 @@
         <v>0</v>
       </c>
       <c r="E278" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>171</v>
+      </c>
+      <c r="F278" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>0</v>
       </c>
@@ -6086,15 +8135,18 @@
         <v>0</v>
       </c>
       <c r="E279" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>269</v>
+      </c>
+      <c r="F279" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B280">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C280">
         <v>113</v>
@@ -6103,15 +8155,18 @@
         <v>2</v>
       </c>
       <c r="E280" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>270</v>
+      </c>
+      <c r="F280" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>0</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C281">
         <v>113</v>
@@ -6120,10 +8175,13 @@
         <v>1</v>
       </c>
       <c r="E281" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>271</v>
+      </c>
+      <c r="F281" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282">
         <v>0</v>
       </c>
@@ -6137,10 +8195,13 @@
         <v>0</v>
       </c>
       <c r="E282" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>272</v>
+      </c>
+      <c r="F282" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>0</v>
       </c>
@@ -6154,15 +8215,18 @@
         <v>0</v>
       </c>
       <c r="E283" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>273</v>
+      </c>
+      <c r="F283" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B284">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C284">
         <v>113</v>
@@ -6171,10 +8235,13 @@
         <v>4</v>
       </c>
       <c r="E284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F284" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>0</v>
       </c>
@@ -6188,10 +8255,13 @@
         <v>3</v>
       </c>
       <c r="E285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>274</v>
+      </c>
+      <c r="F285" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286">
         <v>0</v>
       </c>
@@ -6205,10 +8275,13 @@
         <v>0</v>
       </c>
       <c r="E286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>275</v>
+      </c>
+      <c r="F286" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>0</v>
       </c>
@@ -6222,10 +8295,13 @@
         <v>0</v>
       </c>
       <c r="E287" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>276</v>
+      </c>
+      <c r="F287" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288">
         <v>0</v>
       </c>
@@ -6239,10 +8315,13 @@
         <v>0</v>
       </c>
       <c r="E288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>277</v>
+      </c>
+      <c r="F288" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289">
         <v>0</v>
       </c>
@@ -6256,10 +8335,13 @@
         <v>0</v>
       </c>
       <c r="E289" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>278</v>
+      </c>
+      <c r="F289" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290">
         <v>0</v>
       </c>
@@ -6273,66 +8355,78 @@
         <v>0</v>
       </c>
       <c r="E290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>279</v>
+      </c>
+      <c r="F290" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B291">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C291">
         <v>113</v>
       </c>
       <c r="D291">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>280</v>
+      </c>
+      <c r="F291" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B292">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C292">
         <v>113</v>
       </c>
       <c r="D292">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="E292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>281</v>
+      </c>
+      <c r="F292" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293">
         <v>0</v>
       </c>
       <c r="B293">
-        <v>1045</v>
+        <v>369</v>
       </c>
       <c r="C293">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D293">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F293" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B294">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="C294">
         <v>113</v>
@@ -6341,10 +8435,13 @@
         <v>6</v>
       </c>
       <c r="E294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>283</v>
+      </c>
+      <c r="F294" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295">
         <v>0</v>
       </c>
@@ -6358,10 +8455,13 @@
         <v>0</v>
       </c>
       <c r="E295" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>261</v>
+      </c>
+      <c r="F295" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296">
         <v>0</v>
       </c>
@@ -6375,10 +8475,13 @@
         <v>0</v>
       </c>
       <c r="E296" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>162</v>
+      </c>
+      <c r="F296" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297">
         <v>0</v>
       </c>
@@ -6392,10 +8495,13 @@
         <v>3</v>
       </c>
       <c r="E297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>284</v>
+      </c>
+      <c r="F297" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298">
         <v>0</v>
       </c>
@@ -6409,10 +8515,13 @@
         <v>0</v>
       </c>
       <c r="E298" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>285</v>
+      </c>
+      <c r="F298" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299">
         <v>0</v>
       </c>
@@ -6426,10 +8535,13 @@
         <v>7</v>
       </c>
       <c r="E299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F299" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300">
         <v>0</v>
       </c>
@@ -6443,10 +8555,13 @@
         <v>1</v>
       </c>
       <c r="E300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>287</v>
+      </c>
+      <c r="F300" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301">
         <v>0</v>
       </c>
@@ -6460,10 +8575,13 @@
         <v>0</v>
       </c>
       <c r="E301" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>288</v>
+      </c>
+      <c r="F301" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302">
         <v>0</v>
       </c>
@@ -6477,10 +8595,13 @@
         <v>0</v>
       </c>
       <c r="E302" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>104</v>
+      </c>
+      <c r="F302" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303">
         <v>0</v>
       </c>
@@ -6494,10 +8615,13 @@
         <v>0</v>
       </c>
       <c r="E303" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>289</v>
+      </c>
+      <c r="F303" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304">
         <v>0</v>
       </c>
@@ -6511,10 +8635,13 @@
         <v>0</v>
       </c>
       <c r="E304" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>177</v>
+      </c>
+      <c r="F304" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305">
         <v>0</v>
       </c>
@@ -6528,15 +8655,18 @@
         <v>4</v>
       </c>
       <c r="E305" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>290</v>
+      </c>
+      <c r="F305" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306">
         <v>0</v>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C306">
         <v>113</v>
@@ -6545,29 +8675,35 @@
         <v>10</v>
       </c>
       <c r="E306" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>291</v>
+      </c>
+      <c r="F306" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B307">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="C307">
         <v>113</v>
       </c>
       <c r="D307">
+        <v>12</v>
+      </c>
+      <c r="E307" t="s">
+        <v>292</v>
+      </c>
+      <c r="F307" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308">
         <v>8</v>
-      </c>
-      <c r="E307" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308">
-        <v>4</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -6579,15 +8715,18 @@
         <v>122</v>
       </c>
       <c r="E308" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>293</v>
+      </c>
+      <c r="F308" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B309">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C309">
         <v>113</v>
@@ -6596,10 +8735,13 @@
         <v>27</v>
       </c>
       <c r="E309" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>294</v>
+      </c>
+      <c r="F309" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310">
         <v>0</v>
       </c>
@@ -6613,10 +8755,13 @@
         <v>1</v>
       </c>
       <c r="E310" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>295</v>
+      </c>
+      <c r="F310" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311">
         <v>0</v>
       </c>
@@ -6630,10 +8775,13 @@
         <v>38</v>
       </c>
       <c r="E311" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>296</v>
+      </c>
+      <c r="F311" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312">
         <v>0</v>
       </c>
@@ -6647,10 +8795,13 @@
         <v>1</v>
       </c>
       <c r="E312" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>297</v>
+      </c>
+      <c r="F312" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313">
         <v>0</v>
       </c>
@@ -6664,10 +8815,13 @@
         <v>0</v>
       </c>
       <c r="E313" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>298</v>
+      </c>
+      <c r="F313" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314">
         <v>0</v>
       </c>
@@ -6681,27 +8835,33 @@
         <v>16</v>
       </c>
       <c r="E314" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>299</v>
+      </c>
+      <c r="F314" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315">
-        <v>811</v>
+        <v>411</v>
       </c>
       <c r="B315">
-        <v>257</v>
+        <v>124</v>
       </c>
       <c r="C315">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D315">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="E315" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="F315" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316">
         <v>0</v>
       </c>
@@ -6715,10 +8875,13 @@
         <v>7</v>
       </c>
       <c r="E316" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>301</v>
+      </c>
+      <c r="F316" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317">
         <v>0</v>
       </c>
@@ -6732,10 +8895,13 @@
         <v>0</v>
       </c>
       <c r="E317" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>302</v>
+      </c>
+      <c r="F317" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318">
         <v>0</v>
       </c>
@@ -6749,10 +8915,13 @@
         <v>1</v>
       </c>
       <c r="E318" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>303</v>
+      </c>
+      <c r="F318" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319">
         <v>0</v>
       </c>
@@ -6766,10 +8935,13 @@
         <v>55</v>
       </c>
       <c r="E319" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>304</v>
+      </c>
+      <c r="F319" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320">
         <v>0</v>
       </c>
@@ -6783,10 +8955,13 @@
         <v>0</v>
       </c>
       <c r="E320" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>305</v>
+      </c>
+      <c r="F320" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321">
         <v>0</v>
       </c>
@@ -6800,15 +8975,18 @@
         <v>0</v>
       </c>
       <c r="E321" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>306</v>
+      </c>
+      <c r="F321" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322">
         <v>0</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C322">
         <v>113</v>
@@ -6817,10 +8995,13 @@
         <v>1</v>
       </c>
       <c r="E322" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>307</v>
+      </c>
+      <c r="F322" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323">
         <v>0</v>
       </c>
@@ -6834,7 +9015,10 @@
         <v>0</v>
       </c>
       <c r="E323" t="s">
-        <v>322</v>
+        <v>308</v>
+      </c>
+      <c r="F323" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/resources/number_of_files.xlsx
+++ b/resources/number_of_files.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F634"/>
+  <dimension ref="A1:F704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16353,6 +16353,1763 @@
         </is>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B635" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="C635" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D635" s="1" t="inlineStr">
+        <is>
+          <t>Not Java</t>
+        </is>
+      </c>
+      <c r="E635" s="1" t="inlineStr">
+        <is>
+          <t>Total Project</t>
+        </is>
+      </c>
+      <c r="F635" s="1" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>88</v>
+      </c>
+      <c r="B636" t="n">
+        <v>259</v>
+      </c>
+      <c r="C636" t="n">
+        <v>169</v>
+      </c>
+      <c r="D636" t="n">
+        <v>98</v>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5151
+</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>Activiti</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>0</v>
+      </c>
+      <c r="B637" t="n">
+        <v>0</v>
+      </c>
+      <c r="C637" t="n">
+        <v>170</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0</v>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1273
+</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>lottie-android</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>0</v>
+      </c>
+      <c r="B638" t="n">
+        <v>12</v>
+      </c>
+      <c r="C638" t="n">
+        <v>169</v>
+      </c>
+      <c r="D638" t="n">
+        <v>5</v>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     841
+</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>spring-cloud-alibaba</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>59</v>
+      </c>
+      <c r="B639" t="n">
+        <v>161</v>
+      </c>
+      <c r="C639" t="n">
+        <v>169</v>
+      </c>
+      <c r="D639" t="n">
+        <v>19</v>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2935
+</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>nacos</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>48</v>
+      </c>
+      <c r="B640" t="n">
+        <v>0</v>
+      </c>
+      <c r="C640" t="n">
+        <v>169</v>
+      </c>
+      <c r="D640" t="n">
+        <v>13</v>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3249
+</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>fastjson</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>0</v>
+      </c>
+      <c r="B641" t="n">
+        <v>0</v>
+      </c>
+      <c r="C641" t="n">
+        <v>170</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0</v>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   59971
+</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>aliyun-openapi-java-sdk</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>0</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0</v>
+      </c>
+      <c r="C642" t="n">
+        <v>170</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1</v>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4092
+</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>alluxio</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>0</v>
+      </c>
+      <c r="B643" t="n">
+        <v>0</v>
+      </c>
+      <c r="C643" t="n">
+        <v>170</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0</v>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1370
+</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>FXGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>0</v>
+      </c>
+      <c r="B644" t="n">
+        <v>0</v>
+      </c>
+      <c r="C644" t="n">
+        <v>170</v>
+      </c>
+      <c r="D644" t="n">
+        <v>0</v>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     148
+</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>android-beacon-library</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>0</v>
+      </c>
+      <c r="B645" t="n">
+        <v>0</v>
+      </c>
+      <c r="C645" t="n">
+        <v>170</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0</v>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     129
+</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>streamex</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>0</v>
+      </c>
+      <c r="B646" t="n">
+        <v>0</v>
+      </c>
+      <c r="C646" t="n">
+        <v>170</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1</v>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1157
+</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>AntennaPod</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>0</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0</v>
+      </c>
+      <c r="C647" t="n">
+        <v>170</v>
+      </c>
+      <c r="D647" t="n">
+        <v>3</v>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2292
+</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>antlr4</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>0</v>
+      </c>
+      <c r="B648" t="n">
+        <v>0</v>
+      </c>
+      <c r="C648" t="n">
+        <v>170</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0</v>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6713
+</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>AnySoftKeyboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>0</v>
+      </c>
+      <c r="B649" t="n">
+        <v>0</v>
+      </c>
+      <c r="C649" t="n">
+        <v>170</v>
+      </c>
+      <c r="D649" t="n">
+        <v>0</v>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2533
+</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>rocketmq</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>12</v>
+      </c>
+      <c r="B650" t="n">
+        <v>17</v>
+      </c>
+      <c r="C650" t="n">
+        <v>169</v>
+      </c>
+      <c r="D650" t="n">
+        <v>9</v>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4165
+</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>hudi</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>4</v>
+      </c>
+      <c r="B651" t="n">
+        <v>0</v>
+      </c>
+      <c r="C651" t="n">
+        <v>169</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1</v>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4536
+</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>iceberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>62</v>
+      </c>
+      <c r="B652" t="n">
+        <v>116</v>
+      </c>
+      <c r="C652" t="n">
+        <v>169</v>
+      </c>
+      <c r="D652" t="n">
+        <v>91</v>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     979
+</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>servicecomb-pack</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>2</v>
+      </c>
+      <c r="B653" t="n">
+        <v>27</v>
+      </c>
+      <c r="C653" t="n">
+        <v>169</v>
+      </c>
+      <c r="D653" t="n">
+        <v>18</v>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1260
+</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>shiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>0</v>
+      </c>
+      <c r="B654" t="n">
+        <v>0</v>
+      </c>
+      <c r="C654" t="n">
+        <v>170</v>
+      </c>
+      <c r="D654" t="n">
+        <v>0</v>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1372
+</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>opennlp</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>2</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0</v>
+      </c>
+      <c r="C655" t="n">
+        <v>169</v>
+      </c>
+      <c r="D655" t="n">
+        <v>17</v>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1503
+</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>zookeeper</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>0</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0</v>
+      </c>
+      <c r="C656" t="n">
+        <v>170</v>
+      </c>
+      <c r="D656" t="n">
+        <v>40</v>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2275
+</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>avro</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>0</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0</v>
+      </c>
+      <c r="C657" t="n">
+        <v>170</v>
+      </c>
+      <c r="D657" t="n">
+        <v>32</v>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1084
+</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>shardingsphere-elasticjob</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>0</v>
+      </c>
+      <c r="B658" t="n">
+        <v>0</v>
+      </c>
+      <c r="C658" t="n">
+        <v>170</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1</v>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3268
+</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>bookkeeper</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>0</v>
+      </c>
+      <c r="B659" t="n">
+        <v>0</v>
+      </c>
+      <c r="C659" t="n">
+        <v>170</v>
+      </c>
+      <c r="D659" t="n">
+        <v>0</v>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     766
+</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>curator</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>0</v>
+      </c>
+      <c r="B660" t="n">
+        <v>154</v>
+      </c>
+      <c r="C660" t="n">
+        <v>170</v>
+      </c>
+      <c r="D660" t="n">
+        <v>941</v>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   91104
+</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>netbeans</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>0</v>
+      </c>
+      <c r="B661" t="n">
+        <v>0</v>
+      </c>
+      <c r="C661" t="n">
+        <v>170</v>
+      </c>
+      <c r="D661" t="n">
+        <v>3</v>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1101
+</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>nutch</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>12</v>
+      </c>
+      <c r="B662" t="n">
+        <v>10</v>
+      </c>
+      <c r="C662" t="n">
+        <v>169</v>
+      </c>
+      <c r="D662" t="n">
+        <v>11</v>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3215
+</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>servicecomb-java-chassis</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>0</v>
+      </c>
+      <c r="B663" t="n">
+        <v>0</v>
+      </c>
+      <c r="C663" t="n">
+        <v>170</v>
+      </c>
+      <c r="D663" t="n">
+        <v>0</v>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     829
+</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>httpcomponents-client</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>5</v>
+      </c>
+      <c r="B664" t="n">
+        <v>2</v>
+      </c>
+      <c r="C664" t="n">
+        <v>169</v>
+      </c>
+      <c r="D664" t="n">
+        <v>2</v>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2947
+</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>calcite</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>5</v>
+      </c>
+      <c r="B665" t="n">
+        <v>3</v>
+      </c>
+      <c r="C665" t="n">
+        <v>169</v>
+      </c>
+      <c r="D665" t="n">
+        <v>83</v>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4667
+</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>dubbo</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>4</v>
+      </c>
+      <c r="B666" t="n">
+        <v>29</v>
+      </c>
+      <c r="C666" t="n">
+        <v>169</v>
+      </c>
+      <c r="D666" t="n">
+        <v>5</v>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6529
+</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>0</v>
+      </c>
+      <c r="B667" t="n">
+        <v>0</v>
+      </c>
+      <c r="C667" t="n">
+        <v>170</v>
+      </c>
+      <c r="D667" t="n">
+        <v>28</v>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5233
+</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>pulsar</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>0</v>
+      </c>
+      <c r="B668" t="n">
+        <v>0</v>
+      </c>
+      <c r="C668" t="n">
+        <v>170</v>
+      </c>
+      <c r="D668" t="n">
+        <v>13</v>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2410
+</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>zeppelin</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>0</v>
+      </c>
+      <c r="B669" t="n">
+        <v>0</v>
+      </c>
+      <c r="C669" t="n">
+        <v>170</v>
+      </c>
+      <c r="D669" t="n">
+        <v>0</v>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6092
+</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>iotdb</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>0</v>
+      </c>
+      <c r="B670" t="n">
+        <v>13</v>
+      </c>
+      <c r="C670" t="n">
+        <v>169</v>
+      </c>
+      <c r="D670" t="n">
+        <v>8</v>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3833
+</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>skywalking</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>0</v>
+      </c>
+      <c r="B671" t="n">
+        <v>0</v>
+      </c>
+      <c r="C671" t="n">
+        <v>170</v>
+      </c>
+      <c r="D671" t="n">
+        <v>3</v>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3682
+</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>tika</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>0</v>
+      </c>
+      <c r="B672" t="n">
+        <v>0</v>
+      </c>
+      <c r="C672" t="n">
+        <v>169</v>
+      </c>
+      <c r="D672" t="n">
+        <v>4</v>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   12754
+</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>nifi</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>0</v>
+      </c>
+      <c r="B673" t="n">
+        <v>1</v>
+      </c>
+      <c r="C673" t="n">
+        <v>169</v>
+      </c>
+      <c r="D673" t="n">
+        <v>15</v>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     583
+</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>commons-lang</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>0</v>
+      </c>
+      <c r="B674" t="n">
+        <v>0</v>
+      </c>
+      <c r="C674" t="n">
+        <v>170</v>
+      </c>
+      <c r="D674" t="n">
+        <v>1</v>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4496
+</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>gobblin</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>24</v>
+      </c>
+      <c r="B675" t="n">
+        <v>14</v>
+      </c>
+      <c r="C675" t="n">
+        <v>169</v>
+      </c>
+      <c r="D675" t="n">
+        <v>76</v>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3436
+</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>struts</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>8</v>
+      </c>
+      <c r="B676" t="n">
+        <v>0</v>
+      </c>
+      <c r="C676" t="n">
+        <v>169</v>
+      </c>
+      <c r="D676" t="n">
+        <v>1</v>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6523
+</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>kafka</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>9</v>
+      </c>
+      <c r="B677" t="n">
+        <v>44</v>
+      </c>
+      <c r="C677" t="n">
+        <v>169</v>
+      </c>
+      <c r="D677" t="n">
+        <v>59</v>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10414
+</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>geode</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>0</v>
+      </c>
+      <c r="B678" t="n">
+        <v>0</v>
+      </c>
+      <c r="C678" t="n">
+        <v>170</v>
+      </c>
+      <c r="D678" t="n">
+        <v>0</v>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1878
+</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>pdfbox</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>0</v>
+      </c>
+      <c r="B679" t="n">
+        <v>0</v>
+      </c>
+      <c r="C679" t="n">
+        <v>170</v>
+      </c>
+      <c r="D679" t="n">
+        <v>5</v>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3093
+</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>storm</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>4</v>
+      </c>
+      <c r="B680" t="n">
+        <v>0</v>
+      </c>
+      <c r="C680" t="n">
+        <v>169</v>
+      </c>
+      <c r="D680" t="n">
+        <v>289</v>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5322
+</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>activemq</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>0</v>
+      </c>
+      <c r="B681" t="n">
+        <v>0</v>
+      </c>
+      <c r="C681" t="n">
+        <v>170</v>
+      </c>
+      <c r="D681" t="n">
+        <v>13</v>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2106
+</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>maven</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>0</v>
+      </c>
+      <c r="B682" t="n">
+        <v>0</v>
+      </c>
+      <c r="C682" t="n">
+        <v>170</v>
+      </c>
+      <c r="D682" t="n">
+        <v>3</v>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5481
+</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>poi</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>0</v>
+      </c>
+      <c r="B683" t="n">
+        <v>0</v>
+      </c>
+      <c r="C683" t="n">
+        <v>169</v>
+      </c>
+      <c r="D683" t="n">
+        <v>13</v>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2232
+</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>logging-log4j2</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>0</v>
+      </c>
+      <c r="B684" t="n">
+        <v>3</v>
+      </c>
+      <c r="C684" t="n">
+        <v>169</v>
+      </c>
+      <c r="D684" t="n">
+        <v>14</v>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   21272
+</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>hive</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>2</v>
+      </c>
+      <c r="B685" t="n">
+        <v>0</v>
+      </c>
+      <c r="C685" t="n">
+        <v>169</v>
+      </c>
+      <c r="D685" t="n">
+        <v>9</v>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5013
+</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>groovy</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>0</v>
+      </c>
+      <c r="B686" t="n">
+        <v>0</v>
+      </c>
+      <c r="C686" t="n">
+        <v>170</v>
+      </c>
+      <c r="D686" t="n">
+        <v>7</v>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3978
+</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>jmeter</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>10</v>
+      </c>
+      <c r="B687" t="n">
+        <v>0</v>
+      </c>
+      <c r="C687" t="n">
+        <v>169</v>
+      </c>
+      <c r="D687" t="n">
+        <v>9</v>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3744
+</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>tinkerpop</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>0</v>
+      </c>
+      <c r="B688" t="n">
+        <v>0</v>
+      </c>
+      <c r="C688" t="n">
+        <v>170</v>
+      </c>
+      <c r="D688" t="n">
+        <v>2</v>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   24422
+</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>flink</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>0</v>
+      </c>
+      <c r="B689" t="n">
+        <v>0</v>
+      </c>
+      <c r="C689" t="n">
+        <v>170</v>
+      </c>
+      <c r="D689" t="n">
+        <v>10</v>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4514
+</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>tomcat</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>0</v>
+      </c>
+      <c r="B690" t="n">
+        <v>0</v>
+      </c>
+      <c r="C690" t="n">
+        <v>169</v>
+      </c>
+      <c r="D690" t="n">
+        <v>0</v>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7510
+</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>hadoop</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>1</v>
+      </c>
+      <c r="B691" t="n">
+        <v>0</v>
+      </c>
+      <c r="C691" t="n">
+        <v>169</v>
+      </c>
+      <c r="D691" t="n">
+        <v>1</v>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   14546
+</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>beam</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>95</v>
+      </c>
+      <c r="B692" t="n">
+        <v>209</v>
+      </c>
+      <c r="C692" t="n">
+        <v>170</v>
+      </c>
+      <c r="D692" t="n">
+        <v>67</v>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10718
+</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>ambari</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>302</v>
+      </c>
+      <c r="B693" t="n">
+        <v>139</v>
+      </c>
+      <c r="C693" t="n">
+        <v>169</v>
+      </c>
+      <c r="D693" t="n">
+        <v>1371</v>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   33526
+</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>camel</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>905</v>
+      </c>
+      <c r="B694" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C694" t="n">
+        <v>169</v>
+      </c>
+      <c r="D694" t="n">
+        <v>26</v>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   11034
+</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>cas</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>0</v>
+      </c>
+      <c r="B695" t="n">
+        <v>0</v>
+      </c>
+      <c r="C695" t="n">
+        <v>170</v>
+      </c>
+      <c r="D695" t="n">
+        <v>5</v>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1643
+</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>AsciidocFX</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>0</v>
+      </c>
+      <c r="B696" t="n">
+        <v>0</v>
+      </c>
+      <c r="C696" t="n">
+        <v>170</v>
+      </c>
+      <c r="D696" t="n">
+        <v>0</v>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     370
+</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>async-http-client</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>6</v>
+      </c>
+      <c r="B697" t="n">
+        <v>92</v>
+      </c>
+      <c r="C697" t="n">
+        <v>169</v>
+      </c>
+      <c r="D697" t="n">
+        <v>11</v>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     373
+</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>commafeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>3</v>
+      </c>
+      <c r="B698" t="n">
+        <v>7</v>
+      </c>
+      <c r="C698" t="n">
+        <v>169</v>
+      </c>
+      <c r="D698" t="n">
+        <v>0</v>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     385
+</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>atmosphere</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>0</v>
+      </c>
+      <c r="B699" t="n">
+        <v>0</v>
+      </c>
+      <c r="C699" t="n">
+        <v>170</v>
+      </c>
+      <c r="D699" t="n">
+        <v>0</v>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     724
+</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>simplenote-android</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>0</v>
+      </c>
+      <c r="B700" t="n">
+        <v>0</v>
+      </c>
+      <c r="C700" t="n">
+        <v>170</v>
+      </c>
+      <c r="D700" t="n">
+        <v>0</v>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9545
+</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>aws-sdk-java-v2</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>165</v>
+      </c>
+      <c r="B701" t="n">
+        <v>77</v>
+      </c>
+      <c r="C701" t="n">
+        <v>169</v>
+      </c>
+      <c r="D701" t="n">
+        <v>53</v>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2219
+</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>AxonFramework</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>5</v>
+      </c>
+      <c r="B702" t="n">
+        <v>5</v>
+      </c>
+      <c r="C702" t="n">
+        <v>169</v>
+      </c>
+      <c r="D702" t="n">
+        <v>9</v>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1894
+</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>azkaban</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>4</v>
+      </c>
+      <c r="B703" t="n">
+        <v>5</v>
+      </c>
+      <c r="C703" t="n">
+        <v>169</v>
+      </c>
+      <c r="D703" t="n">
+        <v>9</v>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8413
+</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>bazel</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>0</v>
+      </c>
+      <c r="B704" t="n">
+        <v>0</v>
+      </c>
+      <c r="C704" t="n">
+        <v>170</v>
+      </c>
+      <c r="D704" t="n">
+        <v>3</v>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8675
+</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>bc-java</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/number_of_files.xlsx
+++ b/resources/number_of_files.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F704"/>
+  <dimension ref="A1:F706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18110,6 +18110,63 @@
         </is>
       </c>
     </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B705" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="C705" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D705" s="1" t="inlineStr">
+        <is>
+          <t>Not Java</t>
+        </is>
+      </c>
+      <c r="E705" s="1" t="inlineStr">
+        <is>
+          <t>Total Project</t>
+        </is>
+      </c>
+      <c r="F705" s="1" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>0</v>
+      </c>
+      <c r="B706" t="n">
+        <v>0</v>
+      </c>
+      <c r="C706" t="n">
+        <v>171</v>
+      </c>
+      <c r="D706" t="n">
+        <v>1</v>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1157
+</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>AntennaPod</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/number_of_files.xlsx
+++ b/resources/number_of_files.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L362"/>
+  <dimension ref="A1:L363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2935</v>
+        <v>2955</v>
       </c>
       <c r="I5" t="n">
         <v>292</v>
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>59946</v>
+        <v>60208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4092</v>
+        <v>3443</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>4197</v>
+        <v>4213</v>
       </c>
       <c r="I14" t="n">
         <v>17</v>
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>4525</v>
+        <v>4538</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1072</v>
+        <v>1516</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>74140</v>
+        <v>2195</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>11075</v>
+        <v>3268</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>90851</v>
+        <v>91115</v>
       </c>
       <c r="I24" t="n">
         <v>6443</v>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>3638</v>
+        <v>3214</v>
       </c>
       <c r="I26" t="n">
         <v>10</v>
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>2925</v>
+        <v>2947</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>4666</v>
+        <v>4667</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>5058</v>
+        <v>5212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>2448</v>
+        <v>2410</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>6068</v>
+        <v>6138</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>3827</v>
+        <v>3833</v>
       </c>
       <c r="I34" t="n">
         <v>13</v>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>3682</v>
+        <v>3685</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>13414</v>
+        <v>12770</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>4496</v>
+        <v>4498</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>6570</v>
+        <v>6514</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>2036</v>
+        <v>1878</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="I43" t="n">
         <v>8</v>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>5330</v>
+        <v>5337</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>2843</v>
+        <v>2913</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>5479</v>
+        <v>5481</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>2230</v>
+        <v>6235</v>
       </c>
       <c r="I47" t="n">
         <v>11</v>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>5550</v>
+        <v>21305</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>5012</v>
+        <v>5014</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>23756</v>
+        <v>22487</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>4520</v>
+        <v>4505</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>4966</v>
+        <v>15596</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>16459</v>
+        <v>14562</v>
       </c>
       <c r="I55" t="n">
         <v>5</v>
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>10715</v>
+        <v>10718</v>
       </c>
       <c r="I56" t="n">
         <v>831</v>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>33499</v>
       </c>
       <c r="I57" t="n">
         <v>140</v>
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>58</v>
+        <v>11057</v>
       </c>
       <c r="I58" t="n">
         <v>2027</v>
@@ -3334,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>155048</v>
+        <v>155056</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>9478</v>
+        <v>9560</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>2155</v>
+        <v>2226</v>
       </c>
       <c r="I66" t="n">
         <v>77</v>
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>9262</v>
+        <v>8354</v>
       </c>
       <c r="I68" t="n">
         <v>5</v>
@@ -3610,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>4155</v>
+        <v>8675</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>3617</v>
+        <v>3622</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>7016</v>
+        <v>7043</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>3343</v>
+        <v>3886</v>
       </c>
       <c r="I79" t="n">
         <v>1216</v>
@@ -4116,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>971</v>
+        <v>3499</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>12237</v>
+        <v>12287</v>
       </c>
       <c r="I82" t="n">
         <v>1569</v>
@@ -4300,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>16602</v>
+        <v>16612</v>
       </c>
       <c r="I84" t="n">
         <v>266</v>
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>2761</v>
+        <v>2785</v>
       </c>
       <c r="I86" t="n">
         <v>13</v>
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>6948</v>
+        <v>6983</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="I91" t="n">
         <v>9</v>
@@ -4668,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>961</v>
+        <v>978</v>
       </c>
       <c r="I94" t="n">
         <v>11</v>
@@ -4806,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>24068</v>
+        <v>24069</v>
       </c>
       <c r="I95" t="n">
         <v>15</v>
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>5622</v>
+        <v>5642</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>9057</v>
+        <v>9023</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -5220,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>3109</v>
+        <v>3121</v>
       </c>
       <c r="I104" t="n">
         <v>217</v>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1069</v>
+        <v>1085</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>587</v>
+        <v>538</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -5542,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>4286</v>
+        <v>4290</v>
       </c>
       <c r="I111" t="n">
         <v>463</v>
@@ -5588,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>3275</v>
+        <v>3277</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1284</v>
+        <v>1081</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>31235</v>
+        <v>31704</v>
       </c>
       <c r="I116" t="n">
         <v>3367</v>
@@ -5910,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>187</v>
+        <v>797</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1255</v>
+        <v>1287</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>8107</v>
+        <v>7941</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>2841</v>
+        <v>2837</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -6140,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>8522</v>
+        <v>4920</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -6232,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>1305</v>
+        <v>1274</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -6324,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>4051</v>
+        <v>4062</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>15304</v>
+        <v>15358</v>
       </c>
       <c r="I129" t="n">
         <v>1236</v>
@@ -6416,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>21198</v>
+        <v>21197</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -6462,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>1358</v>
+        <v>1368</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>1104</v>
+        <v>1118</v>
       </c>
       <c r="I132" t="n">
         <v>4</v>
@@ -6554,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>4</v>
+        <v>608</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>18398</v>
+        <v>18421</v>
       </c>
       <c r="I134" t="n">
         <v>163</v>
@@ -6646,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>15406</v>
+        <v>17397</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -6692,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>4673</v>
+        <v>4705</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1055</v>
+        <v>1071</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -6922,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -7014,7 +7014,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>3862</v>
+        <v>3891</v>
       </c>
       <c r="I144" t="n">
         <v>537</v>
@@ -7106,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>2781</v>
+        <v>2423</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>88685</v>
+        <v>89712</v>
       </c>
       <c r="I151" t="n">
         <v>1092</v>
@@ -7520,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -7566,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -7612,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>10072</v>
+        <v>10104</v>
       </c>
       <c r="I156" t="n">
         <v>125</v>
@@ -7658,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>2086</v>
+        <v>2097</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -7704,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -7796,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>12417</v>
+        <v>12452</v>
       </c>
       <c r="I160" t="n">
         <v>766</v>
@@ -7842,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>1502</v>
+        <v>1546</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="I165" t="n">
         <v>15</v>
@@ -8072,7 +8072,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -8120,7 +8120,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>2335</v>
+        <v>2344</v>
       </c>
       <c r="I167" t="n">
         <v>2</v>
@@ -8166,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="I168" t="n">
         <v>5</v>
@@ -8212,7 +8212,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="I169" t="n">
         <v>257</v>
@@ -8396,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>7769</v>
+        <v>7799</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>3337</v>
+        <v>3347</v>
       </c>
       <c r="I175" t="n">
         <v>26</v>
@@ -8580,7 +8580,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>256</v>
+        <v>148</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -8626,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>2582</v>
+        <v>2585</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>12453</v>
+        <v>12442</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -9086,7 +9086,7 @@
         <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>31608</v>
+        <v>31764</v>
       </c>
       <c r="I189" t="n">
         <v>11</v>
@@ -9224,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>5054</v>
+        <v>5079</v>
       </c>
       <c r="I191" t="n">
         <v>5</v>
@@ -9408,7 +9408,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>1554</v>
+        <v>1574</v>
       </c>
       <c r="I195" t="n">
         <v>32</v>
@@ -9500,7 +9500,7 @@
         <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1893</v>
+        <v>1906</v>
       </c>
       <c r="I200" t="n">
         <v>34</v>
@@ -9684,7 +9684,7 @@
         <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -9776,7 +9776,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>9771</v>
+        <v>9808</v>
       </c>
       <c r="I203" t="n">
         <v>331</v>
@@ -9824,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>4973</v>
+        <v>4975</v>
       </c>
       <c r="I204" t="n">
         <v>463</v>
@@ -9870,7 +9870,7 @@
         <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="I205" t="n">
         <v>3</v>
@@ -10054,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>3647</v>
+        <v>3705</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -10376,7 +10376,7 @@
         <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -10422,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -10468,7 +10468,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>3322</v>
+        <v>3316</v>
       </c>
       <c r="I218" t="n">
         <v>4</v>
@@ -10560,7 +10560,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>8564</v>
+        <v>8658</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>36979</v>
+        <v>36993</v>
       </c>
       <c r="I223" t="n">
         <v>7</v>
@@ -10744,7 +10744,7 @@
         <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>1</v>
       </c>
       <c r="H225" t="n">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="I225" t="n">
         <v>16</v>
@@ -10836,7 +10836,7 @@
         <v>1</v>
       </c>
       <c r="H226" t="n">
-        <v>3818</v>
+        <v>3903</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -10928,7 +10928,7 @@
         <v>1</v>
       </c>
       <c r="H228" t="n">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="I228" t="n">
         <v>9</v>
@@ -10974,7 +10974,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="n">
-        <v>7923</v>
+        <v>7963</v>
       </c>
       <c r="I229" t="n">
         <v>26</v>
@@ -11020,7 +11020,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="n">
-        <v>2728</v>
+        <v>3083</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -11158,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="H233" t="n">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -11204,7 +11204,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="n">
-        <v>4037</v>
+        <v>4051</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="n">
-        <v>920</v>
+        <v>3598</v>
       </c>
       <c r="I236" t="n">
         <v>13</v>
@@ -11388,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="n">
-        <v>1707</v>
+        <v>1668</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>20857</v>
+        <v>20870</v>
       </c>
       <c r="I240" t="n">
         <v>9</v>
@@ -11572,7 +11572,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>1297</v>
+        <v>1357</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -11618,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="n">
-        <v>1760</v>
+        <v>4793</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -11664,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>159552</v>
+        <v>1582</v>
       </c>
       <c r="I244" t="n">
         <v>111</v>
@@ -11710,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="n">
-        <v>3580</v>
+        <v>3404</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -11756,7 +11756,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="n">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="n">
-        <v>2581</v>
+        <v>2589</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -11986,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="n">
-        <v>48902</v>
+        <v>50432</v>
       </c>
       <c r="I251" t="n">
         <v>4940</v>
@@ -12078,7 +12078,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>2211</v>
+        <v>2217</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>4019</v>
+        <v>4068</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -12400,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="n">
-        <v>1623</v>
+        <v>1759</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -12446,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>16619</v>
       </c>
       <c r="I261" t="n">
         <v>375</v>
@@ -12538,7 +12538,7 @@
         <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>6615</v>
+        <v>632</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -12584,7 +12584,7 @@
         <v>1</v>
       </c>
       <c r="H264" t="n">
-        <v>7608</v>
+        <v>7656</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -12676,7 +12676,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="n">
-        <v>46041</v>
+        <v>1029</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -12724,7 +12724,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="n">
-        <v>10566</v>
+        <v>10561</v>
       </c>
       <c r="I267" t="n">
         <v>18</v>
@@ -12770,7 +12770,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="n">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="n">
-        <v>4715</v>
+        <v>4714</v>
       </c>
       <c r="I271" t="n">
         <v>25</v>
@@ -12954,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="n">
-        <v>4902</v>
+        <v>4909</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -13046,7 +13046,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="n">
-        <v>11936</v>
+        <v>11954</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="n">
-        <v>7994</v>
+        <v>7996</v>
       </c>
       <c r="I275" t="n">
         <v>2</v>
@@ -13186,7 +13186,7 @@
         <v>1</v>
       </c>
       <c r="H277" t="n">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -13324,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>1</v>
       </c>
       <c r="H282" t="n">
-        <v>24479</v>
+        <v>24653</v>
       </c>
       <c r="I282" t="n">
         <v>1981</v>
@@ -13508,7 +13508,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="n">
-        <v>4397</v>
+        <v>4464</v>
       </c>
       <c r="I284" t="n">
         <v>89</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="H288" t="n">
-        <v>1507</v>
+        <v>1528</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -13738,7 +13738,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="n">
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -13784,7 +13784,7 @@
         <v>1</v>
       </c>
       <c r="H290" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>1</v>
       </c>
       <c r="H292" t="n">
-        <v>1664</v>
+        <v>1712</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -13922,7 +13922,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="n">
-        <v>2860</v>
+        <v>2924</v>
       </c>
       <c r="I293" t="n">
         <v>192</v>
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -14198,7 +14198,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="n">
-        <v>8262</v>
+        <v>8265</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -14244,7 +14244,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="n">
-        <v>2706</v>
+        <v>2716</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -14336,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="n">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -14382,7 +14382,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="n">
-        <v>5795</v>
+        <v>5794</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -14428,7 +14428,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="n">
-        <v>911</v>
+        <v>1199</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -14474,7 +14474,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="n">
-        <v>7375</v>
+        <v>7757</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -14566,7 +14566,7 @@
         <v>1</v>
       </c>
       <c r="H307" t="n">
-        <v>2126</v>
+        <v>2145</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="H310" t="n">
-        <v>11166</v>
+        <v>11222</v>
       </c>
       <c r="I310" t="n">
         <v>1181</v>
@@ -14750,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="n">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -14842,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="n">
-        <v>5599</v>
+        <v>1295</v>
       </c>
       <c r="I313" t="n">
         <v>4</v>
@@ -14888,7 +14888,7 @@
         <v>1</v>
       </c>
       <c r="H314" t="n">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -14934,7 +14934,7 @@
         <v>1</v>
       </c>
       <c r="H315" t="n">
-        <v>3654</v>
+        <v>3701</v>
       </c>
       <c r="I315" t="n">
         <v>61</v>
@@ -14980,7 +14980,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="n">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -15026,7 +15026,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="n">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="I317" t="n">
         <v>4</v>
@@ -15072,7 +15072,7 @@
         <v>1</v>
       </c>
       <c r="H318" t="n">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I318" t="n">
         <v>6</v>
@@ -15210,7 +15210,7 @@
         <v>1</v>
       </c>
       <c r="H321" t="n">
-        <v>697</v>
+        <v>741</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -15256,7 +15256,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -15302,7 +15302,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="n">
-        <v>2456</v>
+        <v>2468</v>
       </c>
       <c r="I323" t="n">
         <v>51</v>
@@ -15348,7 +15348,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="n">
-        <v>4322</v>
+        <v>4677</v>
       </c>
       <c r="I324" t="n">
         <v>67</v>
@@ -15440,7 +15440,7 @@
         <v>1</v>
       </c>
       <c r="H326" t="n">
-        <v>10161</v>
+        <v>10196</v>
       </c>
       <c r="I326" t="n">
         <v>730</v>
@@ -15486,7 +15486,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="n">
-        <v>2989</v>
+        <v>3008</v>
       </c>
       <c r="I327" t="n">
         <v>23</v>
@@ -15532,7 +15532,7 @@
         <v>1</v>
       </c>
       <c r="H328" t="n">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="I328" t="n">
         <v>92</v>
@@ -15578,7 +15578,7 @@
         <v>1</v>
       </c>
       <c r="H329" t="n">
-        <v>2649</v>
+        <v>2678</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -15624,7 +15624,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="n">
-        <v>1121</v>
+        <v>1138</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -15716,7 +15716,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="n">
-        <v>206</v>
+        <v>2868</v>
       </c>
       <c r="I332" t="n">
         <v>499</v>
@@ -15762,7 +15762,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="n">
-        <v>3149</v>
+        <v>3137</v>
       </c>
       <c r="I333" t="n">
         <v>36</v>
@@ -15808,7 +15808,7 @@
         <v>1</v>
       </c>
       <c r="H334" t="n">
-        <v>7399</v>
+        <v>7410</v>
       </c>
       <c r="I334" t="n">
         <v>402</v>
@@ -15854,7 +15854,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="n">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="I335" t="n">
         <v>4</v>
@@ -15900,7 +15900,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="n">
-        <v>5000</v>
+        <v>5014</v>
       </c>
       <c r="I336" t="n">
         <v>1929</v>
@@ -15946,7 +15946,7 @@
         <v>1</v>
       </c>
       <c r="H337" t="n">
-        <v>8162</v>
+        <v>8172</v>
       </c>
       <c r="I337" t="n">
         <v>425</v>
@@ -15992,7 +15992,7 @@
         <v>1</v>
       </c>
       <c r="H338" t="n">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -16038,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="H339" t="n">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -16084,7 +16084,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="n">
-        <v>14740</v>
+        <v>14724</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -16130,7 +16130,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="n">
-        <v>1418</v>
+        <v>1444</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -16314,7 +16314,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="n">
-        <v>1542</v>
+        <v>1551</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -16360,7 +16360,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="n">
-        <v>2473</v>
+        <v>2462</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -16498,7 +16498,7 @@
         <v>1</v>
       </c>
       <c r="H349" t="n">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -16590,7 +16590,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="n">
-        <v>22007</v>
+        <v>22073</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -16820,7 +16820,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="n">
-        <v>13415</v>
+        <v>13495</v>
       </c>
       <c r="I356" t="n">
         <v>348</v>
@@ -16866,7 +16866,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="n">
-        <v>2849</v>
+        <v>2921</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -17111,7 +17111,53 @@
         <v>5</v>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>liferay</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>liferay-portal</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Enterprise Resource Planning</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>38220df7f113ab58af84b3297d81db6bb40d3320</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:30:11+00:00</t>
+        </is>
+      </c>
+      <c r="G363" t="b">
+        <v>1</v>
+      </c>
+      <c r="H363" t="n">
+        <v>109041</v>
+      </c>
+      <c r="I363" t="n">
+        <v>6549</v>
+      </c>
+      <c r="J363" t="n">
+        <v>3519</v>
+      </c>
+      <c r="K363" t="n">
+        <v>202</v>
+      </c>
+      <c r="L363" t="n">
+        <v>1480</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>